--- a/medicine/Handicap/Une_question_de_courage/Une_question_de_courage.xlsx
+++ b/medicine/Handicap/Une_question_de_courage/Une_question_de_courage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une question de courage (Door to Door) est un téléfilm de type comédie dramatique américain réalisé par Steven Schachter, projeté en juin 2002 au Atlanta Film Festival (en) puis diffusé le 14 juillet 2002 sur TNT.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Affligé depuis la naissance d'une infirmité motrice cérébrale qui affecte son élocution et sa faculté à se déplacer, Bill Porter est malgré tout déterminé à suivre les traces de son père et à devenir VRP.
 En octobre 1955, il réussit à se faire embaucher par la société Watkins, où on lui confie la zone de démarchage la plus ardue.
@@ -543,7 +557,9 @@
           <t>Fiche Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Door to Door
 Titre français : Une question de courage
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>William H. Macy : Bill Porter (en)
 Helen Mirren : Madame Porter
@@ -627,9 +645,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nommé aux Golden Globes; William H. Macy a remporté le Satellite Award du meilleur acteur dans une minisérie ou un téléfilm en 2002 pour ce téléfilm[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nommé aux Golden Globes; William H. Macy a remporté le Satellite Award du meilleur acteur dans une minisérie ou un téléfilm en 2002 pour ce téléfilm.
 </t>
         </is>
       </c>
